--- a/data/sum/asignaturas programadas xlsx/presupuesto.xlsx
+++ b/data/sum/asignaturas programadas xlsx/presupuesto.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\data del sum\asignaturas programadas xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MATRICULA\Desktop\data del sum\xlsx\asignaturas programadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB73853-A60D-4CEE-AC65-376D0E7E6BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="13215" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="presupuesto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="249">
   <si>
     <t>cod_asignatura</t>
   </si>
@@ -167,22 +153,58 @@
     <t>313-T</t>
   </si>
   <si>
-    <t>SJL-4-T</t>
+    <t>INGA</t>
+  </si>
+  <si>
+    <t>LINDO</t>
+  </si>
+  <si>
+    <t>DINA CHELA</t>
+  </si>
+  <si>
+    <t>SJL-71-T</t>
   </si>
   <si>
     <t>S.J.L</t>
   </si>
   <si>
+    <t>SJL-72-T</t>
+  </si>
+  <si>
+    <t>SJL-73-T</t>
+  </si>
+  <si>
+    <t>OBREGÓN</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>KARIM GRACE</t>
+  </si>
+  <si>
     <t xml:space="preserve">114102    </t>
   </si>
   <si>
     <t xml:space="preserve">MÉTODOS DE ESTUDIO UNIVERSITARIO </t>
   </si>
   <si>
+    <t>CHUMBE</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALDO CHRISTIAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">M   </t>
   </si>
   <si>
-    <t>312-a-M</t>
+    <t>312-A-M</t>
+  </si>
+  <si>
+    <t>No presencial</t>
   </si>
   <si>
     <t xml:space="preserve">114103    </t>
@@ -215,12 +237,48 @@
     <t xml:space="preserve">HISTORIA DEL PERÚ EN EL CONTEXTO MUNDIAL CONTEMPORÁNEO </t>
   </si>
   <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>LLERENA</t>
+  </si>
+  <si>
+    <t>HUGO JESUS</t>
+  </si>
+  <si>
+    <t>CAYUELA</t>
+  </si>
+  <si>
+    <t>BERRUEZO</t>
+  </si>
+  <si>
+    <t>MIGUEL  ANGEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">114105    </t>
   </si>
   <si>
     <t xml:space="preserve">MATEMÁTICA I </t>
   </si>
   <si>
+    <t>LOZADA</t>
+  </si>
+  <si>
+    <t>PEDRAZA</t>
+  </si>
+  <si>
+    <t>IVÁN GONZALO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>IGLESIAS</t>
+  </si>
+  <si>
+    <t>MIGUEL OMAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">114106    </t>
   </si>
   <si>
@@ -245,13 +303,37 @@
     <t>PAOLO</t>
   </si>
   <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>MONICA BETSABE</t>
+  </si>
+  <si>
     <t xml:space="preserve">114107    </t>
   </si>
   <si>
     <t xml:space="preserve">INGLÉS I </t>
   </si>
   <si>
-    <t>312-A-M</t>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ZABALETA</t>
+  </si>
+  <si>
+    <t>ALIDA</t>
+  </si>
+  <si>
+    <t>CACHO</t>
+  </si>
+  <si>
+    <t>HUERTAS</t>
+  </si>
+  <si>
+    <t>ROSA ENRIQUETA</t>
   </si>
   <si>
     <t xml:space="preserve">114108    </t>
@@ -263,6 +345,15 @@
     <t xml:space="preserve">GE01    </t>
   </si>
   <si>
+    <t>QUESQUÉN</t>
+  </si>
+  <si>
+    <t>ALARCÓN</t>
+  </si>
+  <si>
+    <t>ERICK FÉLIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">114205    </t>
   </si>
   <si>
@@ -275,7 +366,13 @@
     <t xml:space="preserve">MATEMÁTICA II </t>
   </si>
   <si>
-    <t>No presencial</t>
+    <t>TIPE</t>
+  </si>
+  <si>
+    <t>TORVISCO</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
   </si>
   <si>
     <t xml:space="preserve">114301    </t>
@@ -311,6 +408,15 @@
     <t>SJL-1-M</t>
   </si>
   <si>
+    <t>LOLI</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">114302    </t>
   </si>
   <si>
@@ -341,6 +447,15 @@
     <t>JAIME BERNABEL</t>
   </si>
   <si>
+    <t>CHUMPITAZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>DOMINGO GUZMAN</t>
+  </si>
+  <si>
     <t>408-A-M</t>
   </si>
   <si>
@@ -353,6 +468,15 @@
     <t xml:space="preserve">ECONOMÍA GENERAL </t>
   </si>
   <si>
+    <t>PINTO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>JOSÉ FRANCISCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">114305    </t>
   </si>
   <si>
@@ -392,19 +516,28 @@
     <t>GUILLERMO JUAN</t>
   </si>
   <si>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>VALERA</t>
+  </si>
+  <si>
+    <t>INÉS</t>
+  </si>
+  <si>
     <t xml:space="preserve">114307    </t>
   </si>
   <si>
     <t xml:space="preserve">DERECHO TRIBUTARIO </t>
   </si>
   <si>
-    <t>SAAVEDRA</t>
-  </si>
-  <si>
-    <t>TARMEÑO</t>
-  </si>
-  <si>
-    <t>ELI ENRIQUE</t>
+    <t>YACOLCA</t>
+  </si>
+  <si>
+    <t>ESTARES</t>
+  </si>
+  <si>
+    <t>DANIEL IRWIN</t>
   </si>
   <si>
     <t xml:space="preserve">114402    </t>
@@ -413,10 +546,13 @@
     <t xml:space="preserve">FUNDAMENTOS DE FINANZAS </t>
   </si>
   <si>
-    <t xml:space="preserve">114404    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROECONOMÍA </t>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>EMILIO GABRIEL</t>
   </si>
   <si>
     <t xml:space="preserve">114501    </t>
@@ -428,6 +564,15 @@
     <t xml:space="preserve">CONTABILIDAD FINANCIERA II </t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>PEBES</t>
+  </si>
+  <si>
+    <t>ROBERTO JAVIER</t>
+  </si>
+  <si>
     <t>413-T</t>
   </si>
   <si>
@@ -494,6 +639,15 @@
     <t>MAGLORIO</t>
   </si>
   <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>MELGAREJO</t>
+  </si>
+  <si>
+    <t>LEONCIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">114504    </t>
   </si>
   <si>
@@ -551,10 +705,31 @@
     <t>MÉLIDA HERLINDA</t>
   </si>
   <si>
+    <t>UCEDA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">114506    </t>
   </si>
   <si>
     <t xml:space="preserve">DERECHO LABORAL </t>
+  </si>
+  <si>
+    <t>ECHEVARRIA</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>VICTOR JAVIER</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>HENRY</t>
   </si>
   <si>
     <t xml:space="preserve">114507    </t>
@@ -596,37 +771,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -641,11 +798,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,59 +885,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D4B276-E0E1-41EC-9767-86B0BF6CC926}" name="Table1" displayName="Table1" ref="A1:AB74" totalsRowShown="0">
-  <autoFilter ref="A1:AB74" xr:uid="{93D4B276-E0E1-41EC-9767-86B0BF6CC926}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:AB74">
-    <sortCondition ref="N2:N74"/>
-    <sortCondition ref="C2:C74"/>
-    <sortCondition ref="A2:A74"/>
-    <sortCondition ref="L2:L74"/>
-  </sortState>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{886054F9-BF6B-41E9-9ECD-F134477B344F}" name="cod_asignatura"/>
-    <tableColumn id="2" xr3:uid="{F727D08D-E56A-4E5F-978F-DAA78F6E527F}" name="cod_tipo_acta"/>
-    <tableColumn id="3" xr3:uid="{E9B10156-75FA-4487-B366-A5865FEB8D04}" name="cod_seccion"/>
-    <tableColumn id="4" xr3:uid="{BF79C7DE-3185-484A-A690-94BB92EA6EDC}" name="cod_turno"/>
-    <tableColumn id="5" xr3:uid="{9659E288-6287-4A88-BB6D-67063B5F0EA1}" name="can_tope_alumnos"/>
-    <tableColumn id="6" xr3:uid="{A7354BF0-F67E-499A-ABDA-991D4C536C57}" name="cod_facultad"/>
-    <tableColumn id="7" xr3:uid="{74743E36-FBBC-4A8E-8357-3950DE6227E4}" name="cod_escuela"/>
-    <tableColumn id="8" xr3:uid="{39BFA5A3-22AE-4B50-AA7D-FE191998E223}" name="cod_plan"/>
-    <tableColumn id="9" xr3:uid="{A189D9E7-6785-4791-A528-298851745694}" name="cod_semestre"/>
-    <tableColumn id="10" xr3:uid="{245B2AA3-4155-46FD-A3C9-B756D73638F7}" name="cod_especialidad"/>
-    <tableColumn id="11" xr3:uid="{0AB7A05A-BE16-454D-9378-9AD1D49D900B}" name="ind_estado_acta"/>
-    <tableColumn id="12" xr3:uid="{F2E5D192-85EC-444F-961F-570B9B4B9A1D}" name="aula_turno"/>
-    <tableColumn id="13" xr3:uid="{52BAE6B2-2C88-4C0C-B902-35AF42DD9DD9}" name="can_alum_matriculados"/>
-    <tableColumn id="14" xr3:uid="{BDAB044A-B732-434D-9E3F-D45687AD973B}" name="num_ciclo_ano_asignatura"/>
-    <tableColumn id="15" xr3:uid="{9F02878E-C5AF-4E32-9BA5-CE6B1DA5AB97}" name="ind_semestre_par"/>
-    <tableColumn id="16" xr3:uid="{FAF7923D-FA11-46DE-BC08-94F183E35637}" name="num_creditaje"/>
-    <tableColumn id="17" xr3:uid="{18CA13C7-AB96-4CAD-9EB4-5E8FC81FB4BA}" name="des_asignatura"/>
-    <tableColumn id="18" xr3:uid="{95C57ADC-B1CB-48A1-8AC7-30D29CD6692F}" name="cod_grupo"/>
-    <tableColumn id="19" xr3:uid="{7331269D-3541-4EFF-9E97-AF06B4AF6FDA}" name="des_plan"/>
-    <tableColumn id="20" xr3:uid="{6AECF64E-E4F2-4C48-AC41-B6DE1C647C5D}" name="ind_reg_plan"/>
-    <tableColumn id="21" xr3:uid="{6ED58BD6-3656-48E9-9512-C3E4A4F308B7}" name="des_especialidad"/>
-    <tableColumn id="22" xr3:uid="{6C86A08A-20CE-4ADF-92AA-469BA5E3ED9F}" name="ape_paterno"/>
-    <tableColumn id="23" xr3:uid="{E8665ED1-43E5-45D7-BE7E-D12A0932917B}" name="ape_materno"/>
-    <tableColumn id="24" xr3:uid="{0122806F-D450-4B9B-BCAD-B7C4DDEFAFC4}" name="nom_docente"/>
-    <tableColumn id="25" xr3:uid="{0C30D766-D46A-487D-92EF-20C201D08D09}" name="t_especialidad"/>
-    <tableColumn id="26" xr3:uid="{50BDD633-5A40-484E-AB24-CE8ACF74D9D0}" name="des_grupo"/>
-    <tableColumn id="27" xr3:uid="{D3FFC84F-3EAB-4F8E-A0F7-55B78FD3CB8E}" name="des_dictado"/>
-    <tableColumn id="28" xr3:uid="{6BEEE4B0-77E7-4596-876D-29A289FFE471}" name="sede_seccion"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Quotable">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Blue II">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -791,48 +896,83 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="335B74"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="DFE3E5"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="1CADE4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="2683C6"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="27CED7"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="42BA97"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="3E8853"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="62A39F"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="6EAC1C"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="B26B02"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Quotable">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -853,47 +993,12 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Tahoma"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Verdana"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Quotable">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -902,52 +1007,76 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="90000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:duotone>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="98000"/>
-                <a:lumMod val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
-            </a:duotone>
-          </a:blip>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -959,11 +1088,11 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:innerShdw blurRad="63500" dist="25400" dir="13500000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="75000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
-            </a:innerShdw>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -971,35 +1100,35 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="84000"/>
-                <a:shade val="84000"/>
-                <a:lumMod val="90000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="84000"/>
-                <a:shade val="90000"/>
-                <a:satMod val="120000"/>
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1011,51 +1140,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Quotable" id="{39EC5628-30ED-4578-ACD8-9820EDB8E15A}" vid="{6F3559E9-1A4C-49D8-94D4-F41003531C49}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="20" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1143,7 +1240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1214,21 +1311,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -1249,10 +1346,10 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1264,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
         <v>37</v>
@@ -1274,6 +1371,15 @@
       </c>
       <c r="U3" t="s">
         <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
         <v>40</v>
@@ -1285,21 +1391,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -1320,10 +1426,10 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1335,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
         <v>37</v>
@@ -1346,15 +1452,6 @@
       <c r="U4" t="s">
         <v>39</v>
       </c>
-      <c r="V4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" t="s">
-        <v>54</v>
-      </c>
       <c r="Y4" t="s">
         <v>40</v>
       </c>
@@ -1362,18 +1459,18 @@
         <v>41</v>
       </c>
       <c r="AB4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -1400,10 +1497,10 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1415,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>37</v>
@@ -1433,18 +1530,18 @@
         <v>41</v>
       </c>
       <c r="AB5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1471,10 +1568,10 @@
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1486,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
         <v>37</v>
@@ -1497,6 +1594,15 @@
       <c r="U6" t="s">
         <v>39</v>
       </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" t="s">
+        <v>53</v>
+      </c>
       <c r="Y6" t="s">
         <v>40</v>
       </c>
@@ -1504,12 +1610,12 @@
         <v>41</v>
       </c>
       <c r="AB6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1545,7 +1651,7 @@
         <v>34</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1557,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
         <v>37</v>
@@ -1567,15 +1673,6 @@
       </c>
       <c r="U7" t="s">
         <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" t="s">
-        <v>66</v>
       </c>
       <c r="Y7" t="s">
         <v>40</v>
@@ -1587,21 +1684,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -1622,10 +1719,10 @@
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1637,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
@@ -1658,21 +1755,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -1693,22 +1790,22 @@
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
       <c r="P9">
         <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
         <v>37</v>
@@ -1719,6 +1816,15 @@
       <c r="U9" t="s">
         <v>39</v>
       </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
       <c r="Y9" t="s">
         <v>40</v>
       </c>
@@ -1726,24 +1832,24 @@
         <v>41</v>
       </c>
       <c r="AB9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -1764,10 +1870,10 @@
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1779,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
         <v>37</v>
@@ -1800,21 +1906,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -1835,10 +1941,10 @@
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1850,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
         <v>37</v>
@@ -1865,27 +1971,27 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AB11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1906,10 +2012,10 @@
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1921,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
         <v>37</v>
@@ -1932,40 +2038,31 @@
       <c r="U12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" t="s">
-        <v>56</v>
-      </c>
-      <c r="X12" t="s">
-        <v>57</v>
-      </c>
       <c r="Y12" t="s">
         <v>40</v>
       </c>
       <c r="AA12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AB12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -1986,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2001,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S13" t="s">
         <v>37</v>
@@ -2011,6 +2108,15 @@
       </c>
       <c r="U13" t="s">
         <v>39</v>
+      </c>
+      <c r="V13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" t="s">
+        <v>66</v>
       </c>
       <c r="Y13" t="s">
         <v>40</v>
@@ -2022,9 +2128,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -2036,7 +2142,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -2060,7 +2166,7 @@
         <v>43</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2072,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S14" t="s">
         <v>37</v>
@@ -2082,6 +2188,15 @@
       </c>
       <c r="U14" t="s">
         <v>39</v>
+      </c>
+      <c r="V14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X14" t="s">
+        <v>69</v>
       </c>
       <c r="Y14" t="s">
         <v>40</v>
@@ -2093,7 +2208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -2101,13 +2216,13 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -2128,10 +2243,10 @@
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2154,15 +2269,6 @@
       <c r="U15" t="s">
         <v>39</v>
       </c>
-      <c r="V15" t="s">
-        <v>67</v>
-      </c>
-      <c r="W15" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" t="s">
-        <v>69</v>
-      </c>
       <c r="Y15" t="s">
         <v>40</v>
       </c>
@@ -2170,24 +2276,24 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -2208,10 +2314,10 @@
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2223,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="Q16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S16" t="s">
         <v>37</v>
@@ -2241,24 +2347,24 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -2279,22 +2385,22 @@
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
       <c r="P17">
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="S17" t="s">
         <v>37</v>
@@ -2312,24 +2418,24 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -2350,10 +2456,10 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2365,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s">
         <v>37</v>
@@ -2383,18 +2489,18 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -2421,10 +2527,10 @@
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2436,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s">
         <v>37</v>
@@ -2447,6 +2553,15 @@
       <c r="U19" t="s">
         <v>39</v>
       </c>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s">
+        <v>74</v>
+      </c>
       <c r="Y19" t="s">
         <v>40</v>
       </c>
@@ -2454,12 +2569,12 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -2492,10 +2607,10 @@
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2507,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s">
         <v>37</v>
@@ -2518,6 +2633,15 @@
       <c r="U20" t="s">
         <v>39</v>
       </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s">
+        <v>77</v>
+      </c>
       <c r="Y20" t="s">
         <v>40</v>
       </c>
@@ -2525,24 +2649,24 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -2563,10 +2687,10 @@
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2578,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s">
         <v>37</v>
@@ -2589,6 +2713,15 @@
       <c r="U21" t="s">
         <v>39</v>
       </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s">
+        <v>77</v>
+      </c>
       <c r="Y21" t="s">
         <v>40</v>
       </c>
@@ -2596,24 +2729,24 @@
         <v>41</v>
       </c>
       <c r="AB21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2634,10 +2767,10 @@
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2649,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s">
         <v>37</v>
@@ -2660,6 +2793,15 @@
       <c r="U22" t="s">
         <v>39</v>
       </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>76</v>
+      </c>
+      <c r="X22" t="s">
+        <v>77</v>
+      </c>
       <c r="Y22" t="s">
         <v>40</v>
       </c>
@@ -2667,24 +2809,24 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2705,10 +2847,10 @@
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2720,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="Q23" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s">
         <v>37</v>
@@ -2731,6 +2873,15 @@
       <c r="U23" t="s">
         <v>39</v>
       </c>
+      <c r="V23" t="s">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s">
+        <v>82</v>
+      </c>
       <c r="Y23" t="s">
         <v>40</v>
       </c>
@@ -2738,24 +2889,24 @@
         <v>41</v>
       </c>
       <c r="AB23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -2776,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2791,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s">
         <v>37</v>
@@ -2802,6 +2953,15 @@
       <c r="U24" t="s">
         <v>39</v>
       </c>
+      <c r="V24" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" t="s">
+        <v>85</v>
+      </c>
       <c r="Y24" t="s">
         <v>40</v>
       </c>
@@ -2809,12 +2969,12 @@
         <v>41</v>
       </c>
       <c r="AB24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2847,22 +3007,22 @@
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
       <c r="P25">
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s">
         <v>37</v>
@@ -2880,158 +3040,154 @@
         <v>41</v>
       </c>
       <c r="AB25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s">
         <v>48</v>
       </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
         <v>1</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26"/>
-      <c r="S26" t="s">
-        <v>37</v>
-      </c>
-      <c r="T26" t="s">
-        <v>38</v>
-      </c>
-      <c r="U26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z26"/>
-      <c r="AA26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s">
         <v>48</v>
       </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27"/>
-      <c r="S27" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z27"/>
-      <c r="AA27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -3040,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -3064,22 +3220,22 @@
         <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="S28" t="s">
         <v>37</v>
@@ -3090,67 +3246,76 @@
       <c r="U28" t="s">
         <v>39</v>
       </c>
+      <c r="V28" t="s">
+        <v>88</v>
+      </c>
+      <c r="W28" t="s">
+        <v>89</v>
+      </c>
+      <c r="X28" t="s">
+        <v>90</v>
+      </c>
       <c r="Y28" t="s">
         <v>40</v>
       </c>
       <c r="AA28" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29">
+        <v>48</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
       <c r="O29" t="s">
         <v>35</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S29" t="s">
         <v>37</v>
@@ -3162,13 +3327,13 @@
         <v>39</v>
       </c>
       <c r="V29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="W29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="X29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Y29" t="s">
         <v>40</v>
@@ -3180,57 +3345,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30">
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" t="s">
-        <v>82</v>
-      </c>
-      <c r="M30">
-        <v>48</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
       <c r="O30" t="s">
         <v>35</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S30" t="s">
         <v>37</v>
@@ -3257,21 +3422,21 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -3295,13 +3460,13 @@
         <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>35</v>
@@ -3310,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="S31" t="s">
         <v>37</v>
@@ -3322,13 +3487,13 @@
         <v>39</v>
       </c>
       <c r="V31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="W31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="X31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Y31" t="s">
         <v>40</v>
@@ -3337,21 +3502,21 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>50</v>
@@ -3375,13 +3540,13 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
         <v>35</v>
@@ -3390,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
         <v>37</v>
@@ -3401,6 +3566,15 @@
       <c r="U32" t="s">
         <v>39</v>
       </c>
+      <c r="V32" t="s">
+        <v>94</v>
+      </c>
+      <c r="W32" t="s">
+        <v>95</v>
+      </c>
+      <c r="X32" t="s">
+        <v>96</v>
+      </c>
       <c r="Y32" t="s">
         <v>40</v>
       </c>
@@ -3408,12 +3582,12 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -3422,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -3446,13 +3620,13 @@
         <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" t="s">
         <v>35</v>
@@ -3461,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S33" t="s">
         <v>37</v>
@@ -3473,13 +3647,13 @@
         <v>39</v>
       </c>
       <c r="V33" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="W33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Y33" t="s">
         <v>40</v>
@@ -3491,49 +3665,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34">
-        <v>50</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" t="s">
-        <v>82</v>
-      </c>
-      <c r="M34">
-        <v>47</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
       <c r="O34" t="s">
         <v>35</v>
       </c>
@@ -3541,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="Q34" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="S34" t="s">
         <v>37</v>
@@ -3553,13 +3727,13 @@
         <v>39</v>
       </c>
       <c r="V34" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="W34" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="X34" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="Y34" t="s">
         <v>40</v>
@@ -3571,128 +3745,128 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="O35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>98</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s">
         <v>48</v>
       </c>
-      <c r="E35">
-        <v>50</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" t="s">
-        <v>82</v>
-      </c>
-      <c r="M35">
-        <v>35</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>120</v>
-      </c>
-      <c r="S35" t="s">
-        <v>37</v>
-      </c>
-      <c r="T35" t="s">
-        <v>38</v>
-      </c>
-      <c r="U35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36">
-        <v>50</v>
-      </c>
-      <c r="F36">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" t="s">
-        <v>87</v>
-      </c>
-      <c r="M36">
-        <v>46</v>
-      </c>
       <c r="N36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>35</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="S36" t="s">
         <v>37</v>
@@ -3704,13 +3878,13 @@
         <v>39</v>
       </c>
       <c r="V36" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="W36" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="X36" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Y36" t="s">
         <v>40</v>
@@ -3722,18 +3896,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -3757,22 +3931,22 @@
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>35</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S37" t="s">
         <v>37</v>
@@ -3790,10 +3964,10 @@
         <v>41</v>
       </c>
       <c r="AB37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3801,10 +3975,10 @@
         <v>29</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -3828,13 +4002,13 @@
         <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M38">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>35</v>
@@ -3861,21 +4035,21 @@
         <v>41</v>
       </c>
       <c r="AB38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -3899,22 +4073,22 @@
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="R39" t="s">
+        <v>107</v>
       </c>
       <c r="S39" t="s">
         <v>37</v>
@@ -3924,6 +4098,15 @@
       </c>
       <c r="U39" t="s">
         <v>39</v>
+      </c>
+      <c r="V39" t="s">
+        <v>108</v>
+      </c>
+      <c r="W39" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" t="s">
+        <v>110</v>
       </c>
       <c r="Y39" t="s">
         <v>40</v>
@@ -3935,9 +4118,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -3946,10 +4129,10 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -3970,21 +4153,21 @@
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N40">
-        <v>3</v>
-      </c>
-      <c r="O40" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
+        <v>106</v>
+      </c>
+      <c r="R40" t="s">
         <v>107</v>
       </c>
       <c r="S40" t="s">
@@ -3997,13 +4180,13 @@
         <v>39</v>
       </c>
       <c r="V40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y40" t="s">
         <v>40</v>
@@ -4015,89 +4198,89 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>106</v>
+      </c>
+      <c r="R41" t="s">
+        <v>107</v>
+      </c>
+      <c r="S41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s">
         <v>48</v>
       </c>
-      <c r="E41">
-        <v>50</v>
-      </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M41">
-        <v>39</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41" t="s">
-        <v>35</v>
-      </c>
-      <c r="P41">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T41" t="s">
-        <v>38</v>
-      </c>
-      <c r="U41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>50</v>
@@ -4121,446 +4304,482 @@
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>106</v>
+      </c>
+      <c r="R42" t="s">
+        <v>107</v>
+      </c>
+      <c r="S42" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s">
+        <v>108</v>
+      </c>
+      <c r="W42" t="s">
+        <v>109</v>
+      </c>
+      <c r="X42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R43" t="s">
+        <v>107</v>
+      </c>
+      <c r="S43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W44" t="s">
+        <v>116</v>
+      </c>
+      <c r="X44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB44" t="s">
         <v>42</v>
       </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42" t="s">
-        <v>35</v>
-      </c>
-      <c r="P42">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="s">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45">
+        <v>49</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s">
         <v>120</v>
       </c>
-      <c r="S42" t="s">
-        <v>37</v>
-      </c>
-      <c r="T42" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" t="s">
-        <v>39</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="S45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s">
+        <v>38</v>
+      </c>
+      <c r="U45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s">
         <v>121</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W45" t="s">
         <v>122</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X45" t="s">
         <v>123</v>
       </c>
-      <c r="Y42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s">
+      <c r="Y45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46">
+        <v>46</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>120</v>
+      </c>
+      <c r="S46" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s">
+        <v>125</v>
+      </c>
+      <c r="W46" t="s">
+        <v>126</v>
+      </c>
+      <c r="X46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>120</v>
+      </c>
+      <c r="S47" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s">
+        <v>129</v>
+      </c>
+      <c r="W47" t="s">
+        <v>130</v>
+      </c>
+      <c r="X47" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
-        <v>45</v>
-      </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" t="s">
-        <v>91</v>
-      </c>
-      <c r="M43">
-        <v>5</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-      <c r="O43" t="s">
-        <v>35</v>
-      </c>
-      <c r="P43">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>83</v>
-      </c>
-      <c r="S43" t="s">
-        <v>37</v>
-      </c>
-      <c r="T43" t="s">
-        <v>38</v>
-      </c>
-      <c r="U43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>119</v>
+      </c>
+      <c r="M48">
         <v>48</v>
       </c>
-      <c r="E44">
-        <v>48</v>
-      </c>
-      <c r="F44">
-        <v>11</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44">
-        <v>4</v>
-      </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-      <c r="O44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P44">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>93</v>
-      </c>
-      <c r="S44" t="s">
-        <v>37</v>
-      </c>
-      <c r="T44" t="s">
-        <v>38</v>
-      </c>
-      <c r="U44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45">
-        <v>48</v>
-      </c>
-      <c r="F45">
-        <v>11</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45" t="s">
-        <v>35</v>
-      </c>
-      <c r="P45">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>98</v>
-      </c>
-      <c r="S45" t="s">
-        <v>37</v>
-      </c>
-      <c r="T45" t="s">
-        <v>38</v>
-      </c>
-      <c r="U45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46">
-        <v>48</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46" t="s">
-        <v>35</v>
-      </c>
-      <c r="P46">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>105</v>
-      </c>
-      <c r="S46" t="s">
-        <v>37</v>
-      </c>
-      <c r="T46" t="s">
-        <v>38</v>
-      </c>
-      <c r="U46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47">
-        <v>48</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47">
-        <v>3</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-      <c r="O47" t="s">
-        <v>35</v>
-      </c>
-      <c r="P47">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>107</v>
-      </c>
-      <c r="S47" t="s">
-        <v>37</v>
-      </c>
-      <c r="T47" t="s">
-        <v>38</v>
-      </c>
-      <c r="U47" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48">
-        <v>48</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
       <c r="N48">
         <v>3</v>
       </c>
@@ -4568,10 +4787,10 @@
         <v>35</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="S48" t="s">
         <v>37</v>
@@ -4582,6 +4801,15 @@
       <c r="U48" t="s">
         <v>39</v>
       </c>
+      <c r="V48" t="s">
+        <v>134</v>
+      </c>
+      <c r="W48" t="s">
+        <v>135</v>
+      </c>
+      <c r="X48" t="s">
+        <v>136</v>
+      </c>
       <c r="Y48" t="s">
         <v>40</v>
       </c>
@@ -4589,21 +4817,21 @@
         <v>41</v>
       </c>
       <c r="AB48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E49">
         <v>50</v>
@@ -4627,10 +4855,10 @@
         <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>3</v>
@@ -4639,10 +4867,10 @@
         <v>35</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="S49" t="s">
         <v>37</v>
@@ -4660,25 +4888,25 @@
         <v>41</v>
       </c>
       <c r="AB49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="3">
-        <v>4</v>
+      <c r="C50">
+        <v>3</v>
       </c>
       <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
         <v>48</v>
       </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
       <c r="F50">
         <v>11</v>
       </c>
@@ -4697,25 +4925,24 @@
       <c r="K50" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>102</v>
+      <c r="L50" t="s">
+        <v>128</v>
       </c>
       <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
+        <v>4</v>
+      </c>
+      <c r="N50">
         <v>3</v>
       </c>
       <c r="O50" t="s">
         <v>35</v>
       </c>
       <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R50"/>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>133</v>
+      </c>
       <c r="S50" t="s">
         <v>37</v>
       </c>
@@ -4725,41 +4952,31 @@
       <c r="U50" t="s">
         <v>39</v>
       </c>
-      <c r="V50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="Y50" t="s">
         <v>40</v>
       </c>
-      <c r="Z50"/>
       <c r="AA50" t="s">
         <v>41</v>
       </c>
       <c r="AB50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2">
-        <v>5</v>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>11</v>
@@ -4779,13 +4996,13 @@
       <c r="K51" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>103</v>
+      <c r="L51" t="s">
+        <v>119</v>
       </c>
       <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2">
+        <v>50</v>
+      </c>
+      <c r="N51">
         <v>3</v>
       </c>
       <c r="O51" t="s">
@@ -4794,10 +5011,9 @@
       <c r="P51">
         <v>3</v>
       </c>
-      <c r="Q51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R51"/>
+      <c r="Q51" t="s">
+        <v>138</v>
+      </c>
       <c r="S51" t="s">
         <v>37</v>
       </c>
@@ -4807,10 +5023,18 @@
       <c r="U51" t="s">
         <v>39</v>
       </c>
+      <c r="V51" t="s">
+        <v>139</v>
+      </c>
+      <c r="W51" t="s">
+        <v>140</v>
+      </c>
+      <c r="X51" t="s">
+        <v>141</v>
+      </c>
       <c r="Y51" t="s">
         <v>40</v>
       </c>
-      <c r="Z51"/>
       <c r="AA51" t="s">
         <v>41</v>
       </c>
@@ -4818,57 +5042,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
         <v>124</v>
       </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52">
-        <v>30</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" t="s">
-        <v>78</v>
-      </c>
       <c r="M52">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="S52" t="s">
         <v>37</v>
@@ -4879,31 +5103,40 @@
       <c r="U52" t="s">
         <v>39</v>
       </c>
+      <c r="V52" t="s">
+        <v>142</v>
+      </c>
+      <c r="W52" t="s">
+        <v>143</v>
+      </c>
+      <c r="X52" t="s">
+        <v>144</v>
+      </c>
       <c r="Y52" t="s">
         <v>40</v>
       </c>
       <c r="AA52" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -4924,22 +5157,22 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P53">
         <v>3</v>
       </c>
       <c r="Q53" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="S53" t="s">
         <v>37</v>
@@ -4957,24 +5190,24 @@
         <v>41</v>
       </c>
       <c r="AB53" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>11</v>
@@ -4995,22 +5228,22 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O54" t="s">
         <v>35</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="S54" t="s">
         <v>37</v>
@@ -5020,6 +5253,15 @@
       </c>
       <c r="U54" t="s">
         <v>39</v>
+      </c>
+      <c r="V54" t="s">
+        <v>139</v>
+      </c>
+      <c r="W54" t="s">
+        <v>140</v>
+      </c>
+      <c r="X54" t="s">
+        <v>141</v>
       </c>
       <c r="Y54" t="s">
         <v>40</v>
@@ -5039,40 +5281,40 @@
         <v>29</v>
       </c>
       <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55">
-        <v>50</v>
-      </c>
-      <c r="F55">
-        <v>11</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" t="s">
-        <v>129</v>
-      </c>
-      <c r="M55">
-        <v>27</v>
-      </c>
       <c r="N55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O55" t="s">
         <v>35</v>
@@ -5092,15 +5334,6 @@
       <c r="U55" t="s">
         <v>39</v>
       </c>
-      <c r="V55" t="s">
-        <v>139</v>
-      </c>
-      <c r="W55" t="s">
-        <v>140</v>
-      </c>
-      <c r="X55" t="s">
-        <v>141</v>
-      </c>
       <c r="Y55" t="s">
         <v>40</v>
       </c>
@@ -5113,7 +5346,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
@@ -5122,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -5146,13 +5379,13 @@
         <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M56">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
         <v>35</v>
@@ -5161,7 +5394,7 @@
         <v>3</v>
       </c>
       <c r="Q56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S56" t="s">
         <v>37</v>
@@ -5171,15 +5404,6 @@
       </c>
       <c r="U56" t="s">
         <v>39</v>
-      </c>
-      <c r="V56" t="s">
-        <v>150</v>
-      </c>
-      <c r="W56" t="s">
-        <v>151</v>
-      </c>
-      <c r="X56" t="s">
-        <v>152</v>
       </c>
       <c r="Y56" t="s">
         <v>40</v>
@@ -5193,16 +5417,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -5226,13 +5450,13 @@
         <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M57">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O57" t="s">
         <v>35</v>
@@ -5241,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="Q57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S57" t="s">
         <v>37</v>
@@ -5253,13 +5477,13 @@
         <v>39</v>
       </c>
       <c r="V57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W57" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="X57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Y57" t="s">
         <v>40</v>
@@ -5273,19 +5497,19 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <v>11</v>
@@ -5306,22 +5530,22 @@
         <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M58">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
         <v>35</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="S58" t="s">
         <v>37</v>
@@ -5332,15 +5556,6 @@
       <c r="U58" t="s">
         <v>39</v>
       </c>
-      <c r="V58" t="s">
-        <v>166</v>
-      </c>
-      <c r="W58" t="s">
-        <v>167</v>
-      </c>
-      <c r="X58" t="s">
-        <v>168</v>
-      </c>
       <c r="Y58" t="s">
         <v>40</v>
       </c>
@@ -5348,12 +5563,12 @@
         <v>41</v>
       </c>
       <c r="AB58" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -5362,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -5386,13 +5601,13 @@
         <v>33</v>
       </c>
       <c r="L59" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
         <v>35</v>
@@ -5401,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="Q59" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="S59" t="s">
         <v>37</v>
@@ -5411,6 +5626,15 @@
       </c>
       <c r="U59" t="s">
         <v>39</v>
+      </c>
+      <c r="V59" t="s">
+        <v>154</v>
+      </c>
+      <c r="W59" t="s">
+        <v>155</v>
+      </c>
+      <c r="X59" t="s">
+        <v>156</v>
       </c>
       <c r="Y59" t="s">
         <v>40</v>
@@ -5424,16 +5648,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -5457,13 +5681,13 @@
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M60">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>35</v>
@@ -5472,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="S60" t="s">
         <v>37</v>
@@ -5484,13 +5708,13 @@
         <v>39</v>
       </c>
       <c r="V60" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="W60" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="X60" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="Y60" t="s">
         <v>40</v>
@@ -5504,55 +5728,55 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
         <v>128</v>
       </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61">
-        <v>50</v>
-      </c>
-      <c r="F61">
-        <v>11</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-      <c r="H61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>33</v>
-      </c>
-      <c r="L61" t="s">
-        <v>131</v>
-      </c>
       <c r="M61">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
         <v>35</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="S61" t="s">
         <v>37</v>
@@ -5570,21 +5794,21 @@
         <v>41</v>
       </c>
       <c r="AB61" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>50</v>
@@ -5608,13 +5832,13 @@
         <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O62" t="s">
         <v>35</v>
@@ -5623,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="Q62" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="S62" t="s">
         <v>37</v>
@@ -5635,13 +5859,13 @@
         <v>39</v>
       </c>
       <c r="V62" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="W62" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="X62" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Y62" t="s">
         <v>40</v>
@@ -5655,7 +5879,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
@@ -5664,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E63">
         <v>50</v>
@@ -5688,13 +5912,13 @@
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M63">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O63" t="s">
         <v>35</v>
@@ -5703,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="Q63" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="S63" t="s">
         <v>37</v>
@@ -5715,13 +5939,13 @@
         <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="W63" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y63" t="s">
         <v>40</v>
@@ -5735,19 +5959,19 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64">
         <v>11</v>
@@ -5768,13 +5992,13 @@
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
         <v>35</v>
@@ -5783,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="Q64" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="S64" t="s">
         <v>37</v>
@@ -5794,15 +6018,6 @@
       <c r="U64" t="s">
         <v>39</v>
       </c>
-      <c r="V64" t="s">
-        <v>158</v>
-      </c>
-      <c r="W64" t="s">
-        <v>159</v>
-      </c>
-      <c r="X64" t="s">
-        <v>160</v>
-      </c>
       <c r="Y64" t="s">
         <v>40</v>
       </c>
@@ -5810,21 +6025,21 @@
         <v>41</v>
       </c>
       <c r="AB64" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -5848,22 +6063,22 @@
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M65">
         <v>35</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>35</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="S65" t="s">
         <v>37</v>
@@ -5875,13 +6090,13 @@
         <v>39</v>
       </c>
       <c r="V65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y65" t="s">
         <v>40</v>
@@ -5895,7 +6110,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -5904,10 +6119,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E66">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F66">
         <v>11</v>
@@ -5928,13 +6143,13 @@
         <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>35</v>
@@ -5943,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="Q66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="S66" t="s">
         <v>37</v>
@@ -5966,16 +6181,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>50</v>
@@ -5996,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M67">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>35</v>
@@ -6014,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="Q67" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="S67" t="s">
         <v>37</v>
@@ -6025,15 +6240,6 @@
       <c r="U67" t="s">
         <v>39</v>
       </c>
-      <c r="V67" t="s">
-        <v>180</v>
-      </c>
-      <c r="W67" t="s">
-        <v>181</v>
-      </c>
-      <c r="X67" t="s">
-        <v>182</v>
-      </c>
       <c r="Y67" t="s">
         <v>40</v>
       </c>
@@ -6041,24 +6247,24 @@
         <v>41</v>
       </c>
       <c r="AB67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F68">
         <v>11</v>
@@ -6079,22 +6285,22 @@
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="M68">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P68">
         <v>4</v>
       </c>
       <c r="Q68" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="S68" t="s">
         <v>37</v>
@@ -6106,13 +6312,13 @@
         <v>39</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="W68" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="X68" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="Y68" t="s">
         <v>40</v>
@@ -6126,16 +6332,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <v>50</v>
@@ -6159,10 +6365,10 @@
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="M69">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N69">
         <v>5</v>
@@ -6171,10 +6377,10 @@
         <v>35</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="S69" t="s">
         <v>37</v>
@@ -6186,13 +6392,13 @@
         <v>39</v>
       </c>
       <c r="V69" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="W69" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="X69" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="Y69" t="s">
         <v>40</v>
@@ -6206,16 +6412,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>50</v>
@@ -6239,10 +6445,10 @@
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N70">
         <v>5</v>
@@ -6251,10 +6457,10 @@
         <v>35</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q70" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="S70" t="s">
         <v>37</v>
@@ -6277,7 +6483,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -6286,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>50</v>
@@ -6310,10 +6516,10 @@
         <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="M71">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>5</v>
@@ -6322,10 +6528,10 @@
         <v>35</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="S71" t="s">
         <v>37</v>
@@ -6337,13 +6543,13 @@
         <v>39</v>
       </c>
       <c r="V71" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="W71" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="X71" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="Y71" t="s">
         <v>40</v>
@@ -6357,16 +6563,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E72">
         <v>50</v>
@@ -6390,10 +6596,10 @@
         <v>33</v>
       </c>
       <c r="L72" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N72">
         <v>5</v>
@@ -6402,10 +6608,10 @@
         <v>35</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="S72" t="s">
         <v>37</v>
@@ -6415,6 +6621,15 @@
       </c>
       <c r="U72" t="s">
         <v>39</v>
+      </c>
+      <c r="V72" t="s">
+        <v>192</v>
+      </c>
+      <c r="W72" t="s">
+        <v>193</v>
+      </c>
+      <c r="X72" t="s">
+        <v>194</v>
       </c>
       <c r="Y72" t="s">
         <v>40</v>
@@ -6428,16 +6643,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
         <v>29</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E73">
         <v>50</v>
@@ -6461,10 +6676,10 @@
         <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="M73">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N73">
         <v>5</v>
@@ -6476,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="Q73" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="S73" t="s">
         <v>37</v>
@@ -6486,6 +6701,15 @@
       </c>
       <c r="U73" t="s">
         <v>39</v>
+      </c>
+      <c r="V73" t="s">
+        <v>195</v>
+      </c>
+      <c r="W73" t="s">
+        <v>196</v>
+      </c>
+      <c r="X73" t="s">
+        <v>197</v>
       </c>
       <c r="Y73" t="s">
         <v>40</v>
@@ -6499,7 +6723,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -6508,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="E74">
         <v>50</v>
@@ -6532,10 +6756,10 @@
         <v>33</v>
       </c>
       <c r="L74" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>5</v>
@@ -6547,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="Q74" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="S74" t="s">
         <v>37</v>
@@ -6559,13 +6783,13 @@
         <v>39</v>
       </c>
       <c r="V74" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="W74" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="X74" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Y74" t="s">
         <v>40</v>
@@ -6577,10 +6801,1207 @@
         <v>42</v>
       </c>
     </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>179</v>
+      </c>
+      <c r="M75">
+        <v>50</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>35</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>202</v>
+      </c>
+      <c r="S75" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s">
+        <v>38</v>
+      </c>
+      <c r="U75" t="s">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s">
+        <v>203</v>
+      </c>
+      <c r="W75" t="s">
+        <v>204</v>
+      </c>
+      <c r="X75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>184</v>
+      </c>
+      <c r="M76">
+        <v>44</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>35</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>202</v>
+      </c>
+      <c r="S76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s">
+        <v>38</v>
+      </c>
+      <c r="U76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V76" t="s">
+        <v>203</v>
+      </c>
+      <c r="W76" t="s">
+        <v>204</v>
+      </c>
+      <c r="X76" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>186</v>
+      </c>
+      <c r="M77">
+        <v>18</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77" t="s">
+        <v>35</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>202</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" t="s">
+        <v>206</v>
+      </c>
+      <c r="W77" t="s">
+        <v>207</v>
+      </c>
+      <c r="X77" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" t="s">
+        <v>179</v>
+      </c>
+      <c r="M78">
+        <v>44</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>35</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>210</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>38</v>
+      </c>
+      <c r="U78" t="s">
+        <v>39</v>
+      </c>
+      <c r="V78" t="s">
+        <v>211</v>
+      </c>
+      <c r="W78" t="s">
+        <v>212</v>
+      </c>
+      <c r="X78" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>184</v>
+      </c>
+      <c r="M79">
+        <v>18</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>35</v>
+      </c>
+      <c r="P79">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>210</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" t="s">
+        <v>214</v>
+      </c>
+      <c r="W79" t="s">
+        <v>215</v>
+      </c>
+      <c r="X79" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>186</v>
+      </c>
+      <c r="M80">
+        <v>39</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>35</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>210</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s">
+        <v>39</v>
+      </c>
+      <c r="V80" t="s">
+        <v>217</v>
+      </c>
+      <c r="W80" t="s">
+        <v>218</v>
+      </c>
+      <c r="X80" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" t="s">
+        <v>179</v>
+      </c>
+      <c r="M81">
+        <v>50</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>35</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>221</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>38</v>
+      </c>
+      <c r="U81" t="s">
+        <v>39</v>
+      </c>
+      <c r="V81" t="s">
+        <v>222</v>
+      </c>
+      <c r="W81" t="s">
+        <v>223</v>
+      </c>
+      <c r="X81" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" t="s">
+        <v>184</v>
+      </c>
+      <c r="M82">
+        <v>36</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>35</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>221</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>38</v>
+      </c>
+      <c r="U82" t="s">
+        <v>39</v>
+      </c>
+      <c r="V82" t="s">
+        <v>225</v>
+      </c>
+      <c r="W82" t="s">
+        <v>226</v>
+      </c>
+      <c r="X82" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" t="s">
+        <v>186</v>
+      </c>
+      <c r="M83">
+        <v>6</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>35</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>221</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>38</v>
+      </c>
+      <c r="U83" t="s">
+        <v>39</v>
+      </c>
+      <c r="V83" t="s">
+        <v>228</v>
+      </c>
+      <c r="W83" t="s">
+        <v>95</v>
+      </c>
+      <c r="X83" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>179</v>
+      </c>
+      <c r="M84">
+        <v>50</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>35</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>231</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>38</v>
+      </c>
+      <c r="U84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V84" t="s">
+        <v>232</v>
+      </c>
+      <c r="W84" t="s">
+        <v>233</v>
+      </c>
+      <c r="X84" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>184</v>
+      </c>
+      <c r="M85">
+        <v>39</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85" t="s">
+        <v>35</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>231</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>38</v>
+      </c>
+      <c r="U85" t="s">
+        <v>39</v>
+      </c>
+      <c r="V85" t="s">
+        <v>235</v>
+      </c>
+      <c r="W85" t="s">
+        <v>122</v>
+      </c>
+      <c r="X85" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>186</v>
+      </c>
+      <c r="M86">
+        <v>11</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>35</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>231</v>
+      </c>
+      <c r="S86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s">
+        <v>39</v>
+      </c>
+      <c r="V86" t="s">
+        <v>232</v>
+      </c>
+      <c r="W86" t="s">
+        <v>233</v>
+      </c>
+      <c r="X86" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>179</v>
+      </c>
+      <c r="M87">
+        <v>49</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>238</v>
+      </c>
+      <c r="S87" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s">
+        <v>39</v>
+      </c>
+      <c r="V87" t="s">
+        <v>239</v>
+      </c>
+      <c r="W87" t="s">
+        <v>240</v>
+      </c>
+      <c r="X87" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>242</v>
+      </c>
+      <c r="L88" t="s">
+        <v>184</v>
+      </c>
+      <c r="M88">
+        <v>29</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>35</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>238</v>
+      </c>
+      <c r="S88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s">
+        <v>38</v>
+      </c>
+      <c r="U88" t="s">
+        <v>39</v>
+      </c>
+      <c r="V88" t="s">
+        <v>243</v>
+      </c>
+      <c r="W88" t="s">
+        <v>244</v>
+      </c>
+      <c r="X88" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" t="s">
+        <v>186</v>
+      </c>
+      <c r="M89">
+        <v>16</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>35</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>238</v>
+      </c>
+      <c r="S89" t="s">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s">
+        <v>38</v>
+      </c>
+      <c r="U89" t="s">
+        <v>39</v>
+      </c>
+      <c r="V89" t="s">
+        <v>246</v>
+      </c>
+      <c r="W89" t="s">
+        <v>247</v>
+      </c>
+      <c r="X89" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>